--- a/Data/uk_aid_youtube_final.xlsx
+++ b/Data/uk_aid_youtube_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study in UK 2025\MSc Data Science and Communication_Liverpool\Semester One\COMM 741 Intro to Data Science\Blog assignment\Data collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study in UK 2025\MSc Data Science and Communication_Liverpool\Semester One\COMM 741 Intro to Data Science\Blog assignment\FINAL Blog assignment files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF9D19C-D152-4B9A-ABD9-E7C8B8EA48A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02B53B-13BB-4C82-8917-90709528989E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2295,7 +2295,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2617,14 +2657,17 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="4" max="6" width="18.90625" customWidth="1"/>
+    <col min="1" max="1" width="6.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
     <col min="7" max="7" width="8.1796875" customWidth="1"/>
     <col min="9" max="9" width="45.1796875" customWidth="1"/>
     <col min="10" max="10" width="25.453125" customWidth="1"/>
@@ -6469,12 +6512,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P77" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>